--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/21/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/21/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.92932</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2929.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.123997</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.37414</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3374.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155027</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.65909</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3659.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186003</v>
       </c>
       <c r="B8" t="n">
-        <v>6.37671</v>
+        <v>3.8739</v>
       </c>
       <c r="C8" t="n">
-        <v>6376.71</v>
+        <v>3873.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.21698</v>
       </c>
       <c r="B9" t="n">
-        <v>6.6908</v>
+        <v>3.98741</v>
       </c>
       <c r="C9" t="n">
-        <v>6690.8</v>
+        <v>3987.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247956</v>
       </c>
       <c r="B10" t="n">
-        <v>7.0012</v>
+        <v>4.06198</v>
       </c>
       <c r="C10" t="n">
-        <v>7001.2</v>
+        <v>4061.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278893</v>
+        <v>0.278884</v>
       </c>
       <c r="B11" t="n">
-        <v>7.24398</v>
+        <v>4.10253</v>
       </c>
       <c r="C11" t="n">
-        <v>7243.98</v>
+        <v>4102.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309818</v>
+        <v>0.309809</v>
       </c>
       <c r="B12" t="n">
-        <v>7.36283</v>
+        <v>4.13767</v>
       </c>
       <c r="C12" t="n">
-        <v>7362.83</v>
+        <v>4137.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340743</v>
+        <v>0.340734</v>
       </c>
       <c r="B13" t="n">
-        <v>7.41378</v>
+        <v>4.16634</v>
       </c>
       <c r="C13" t="n">
-        <v>7413.78</v>
+        <v>4166.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371659</v>
       </c>
       <c r="B14" t="n">
-        <v>7.439979999999999</v>
+        <v>4.19</v>
       </c>
       <c r="C14" t="n">
-        <v>7439.98</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.402585</v>
       </c>
       <c r="B15" t="n">
-        <v>7.462680000000001</v>
+        <v>4.21348</v>
       </c>
       <c r="C15" t="n">
-        <v>7462.68</v>
+        <v>4213.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.43351</v>
       </c>
       <c r="B16" t="n">
-        <v>7.48236</v>
+        <v>4.23563</v>
       </c>
       <c r="C16" t="n">
-        <v>7482.36</v>
+        <v>4235.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464435</v>
       </c>
       <c r="B17" t="n">
-        <v>7.50039</v>
+        <v>4.25446</v>
       </c>
       <c r="C17" t="n">
-        <v>7500.39</v>
+        <v>4254.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495355</v>
       </c>
       <c r="B18" t="n">
-        <v>7.51658</v>
+        <v>4.27327</v>
       </c>
       <c r="C18" t="n">
-        <v>7516.58</v>
+        <v>4273.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.52628</v>
       </c>
       <c r="B19" t="n">
-        <v>7.53078</v>
+        <v>4.290310000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7530.78</v>
+        <v>4290.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.557205</v>
       </c>
       <c r="B20" t="n">
-        <v>7.54436</v>
+        <v>4.307</v>
       </c>
       <c r="C20" t="n">
-        <v>7544.36</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.58813</v>
       </c>
       <c r="B21" t="n">
-        <v>7.55722</v>
+        <v>4.32229</v>
       </c>
       <c r="C21" t="n">
-        <v>7557.22</v>
+        <v>4322.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6191719999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.5692</v>
+        <v>4.33743</v>
       </c>
       <c r="C22" t="n">
-        <v>7569.2</v>
+        <v>4337.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650349</v>
       </c>
       <c r="B23" t="n">
-        <v>7.58049</v>
+        <v>4.35173</v>
       </c>
       <c r="C23" t="n">
-        <v>7580.49</v>
+        <v>4351.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681522</v>
       </c>
       <c r="B24" t="n">
-        <v>7.59084</v>
+        <v>4.3653</v>
       </c>
       <c r="C24" t="n">
-        <v>7590.84</v>
+        <v>4365.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712694</v>
       </c>
       <c r="B25" t="n">
-        <v>7.6009</v>
+        <v>4.37859</v>
       </c>
       <c r="C25" t="n">
-        <v>7600.9</v>
+        <v>4378.59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.7438709999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>7.61017</v>
+        <v>4.391310000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>7610.17</v>
+        <v>4391.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775044</v>
       </c>
       <c r="B27" t="n">
-        <v>7.61907</v>
+        <v>4.40343</v>
       </c>
       <c r="C27" t="n">
-        <v>7619.07</v>
+        <v>4403.43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806217</v>
       </c>
       <c r="B28" t="n">
-        <v>7.62739</v>
+        <v>4.41514</v>
       </c>
       <c r="C28" t="n">
-        <v>7627.39</v>
+        <v>4415.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837394</v>
       </c>
       <c r="B29" t="n">
-        <v>7.63533</v>
+        <v>4.4265</v>
       </c>
       <c r="C29" t="n">
-        <v>7635.33</v>
+        <v>4426.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.8685659999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>7.64276</v>
+        <v>4.437489999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>7642.76</v>
+        <v>4437.49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899743</v>
       </c>
       <c r="B31" t="n">
-        <v>7.64987</v>
+        <v>4.44813</v>
       </c>
       <c r="C31" t="n">
-        <v>7649.87</v>
+        <v>4448.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.930916</v>
       </c>
       <c r="B32" t="n">
-        <v>7.65653</v>
+        <v>4.4584</v>
       </c>
       <c r="C32" t="n">
-        <v>7656.53</v>
+        <v>4458.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.9620880000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>7.66287</v>
+        <v>4.46835</v>
       </c>
       <c r="C33" t="n">
-        <v>7662.87</v>
+        <v>4468.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993265</v>
       </c>
       <c r="B34" t="n">
-        <v>7.66886</v>
+        <v>4.478</v>
       </c>
       <c r="C34" t="n">
-        <v>7668.86</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>7.67447</v>
+        <v>4.4874</v>
       </c>
       <c r="C35" t="n">
-        <v>7674.47</v>
+        <v>4487.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05595</v>
       </c>
       <c r="B36" t="n">
-        <v>7.6798</v>
+        <v>4.49653</v>
       </c>
       <c r="C36" t="n">
-        <v>7679.8</v>
+        <v>4496.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>7.68482</v>
+        <v>4.5054</v>
       </c>
       <c r="C37" t="n">
-        <v>7684.82</v>
+        <v>4505.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11839</v>
+        <v>1.11871</v>
       </c>
       <c r="B38" t="n">
-        <v>7.68951</v>
+        <v>4.51403</v>
       </c>
       <c r="C38" t="n">
-        <v>7689.51</v>
+        <v>4514.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14936</v>
+        <v>1.15009</v>
       </c>
       <c r="B39" t="n">
-        <v>7.69392</v>
+        <v>4.52244</v>
       </c>
       <c r="C39" t="n">
-        <v>7693.92</v>
+        <v>4522.44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18033</v>
+        <v>1.18109</v>
       </c>
       <c r="B40" t="n">
-        <v>7.698020000000001</v>
+        <v>4.530609999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>7698.02</v>
+        <v>4530.61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2113</v>
+        <v>1.21205</v>
       </c>
       <c r="B41" t="n">
-        <v>7.70182</v>
+        <v>4.53858</v>
       </c>
       <c r="C41" t="n">
-        <v>7701.82</v>
+        <v>4538.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24226</v>
+        <v>1.24302</v>
       </c>
       <c r="B42" t="n">
-        <v>7.70536</v>
+        <v>4.54633</v>
       </c>
       <c r="C42" t="n">
-        <v>7705.36</v>
+        <v>4546.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27323</v>
+        <v>1.27399</v>
       </c>
       <c r="B43" t="n">
-        <v>7.70862</v>
+        <v>4.55388</v>
       </c>
       <c r="C43" t="n">
-        <v>7708.62</v>
+        <v>4553.88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30401</v>
+        <v>1.30495</v>
       </c>
       <c r="B44" t="n">
-        <v>7.71163</v>
+        <v>4.561229999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>7711.63</v>
+        <v>4561.23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33457</v>
+        <v>1.33593</v>
       </c>
       <c r="B45" t="n">
-        <v>7.714390000000001</v>
+        <v>4.56841</v>
       </c>
       <c r="C45" t="n">
-        <v>7714.39</v>
+        <v>4568.41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36512</v>
+        <v>1.36689</v>
       </c>
       <c r="B46" t="n">
-        <v>7.71691</v>
+        <v>4.5754</v>
       </c>
       <c r="C46" t="n">
-        <v>7716.91</v>
+        <v>4575.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39568</v>
+        <v>1.39786</v>
       </c>
       <c r="B47" t="n">
-        <v>7.719189999999999</v>
+        <v>4.58221</v>
       </c>
       <c r="C47" t="n">
-        <v>7719.19</v>
+        <v>4582.21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42632</v>
+        <v>1.42883</v>
       </c>
       <c r="B48" t="n">
-        <v>7.72124</v>
+        <v>4.58887</v>
       </c>
       <c r="C48" t="n">
-        <v>7721.24</v>
+        <v>4588.87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45789</v>
+        <v>1.45958</v>
       </c>
       <c r="B49" t="n">
-        <v>7.72311</v>
+        <v>4.59537</v>
       </c>
       <c r="C49" t="n">
-        <v>7723.11</v>
+        <v>4595.37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48946</v>
+        <v>1.49013</v>
       </c>
       <c r="B50" t="n">
-        <v>7.72477</v>
+        <v>4.6017</v>
       </c>
       <c r="C50" t="n">
-        <v>7724.77</v>
+        <v>4601.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52076</v>
+        <v>1.52069</v>
       </c>
       <c r="B51" t="n">
-        <v>7.726170000000001</v>
+        <v>4.6079</v>
       </c>
       <c r="C51" t="n">
-        <v>7726.17</v>
+        <v>4607.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55191</v>
+        <v>1.55124</v>
       </c>
       <c r="B52" t="n">
-        <v>7.72737</v>
+        <v>4.61395</v>
       </c>
       <c r="C52" t="n">
-        <v>7727.37</v>
+        <v>4613.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58306</v>
+        <v>1.5818</v>
       </c>
       <c r="B53" t="n">
-        <v>7.728350000000001</v>
+        <v>4.61985</v>
       </c>
       <c r="C53" t="n">
-        <v>7728.35</v>
+        <v>4619.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6142</v>
+        <v>1.61236</v>
       </c>
       <c r="B54" t="n">
-        <v>7.72912</v>
+        <v>4.62561</v>
       </c>
       <c r="C54" t="n">
-        <v>7729.12</v>
+        <v>4625.61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64535</v>
+        <v>1.64291</v>
       </c>
       <c r="B55" t="n">
-        <v>7.72967</v>
+        <v>4.63123</v>
       </c>
       <c r="C55" t="n">
-        <v>7729.67</v>
+        <v>4631.23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6765</v>
+        <v>1.67448</v>
       </c>
       <c r="B56" t="n">
-        <v>7.730020000000001</v>
+        <v>4.63692</v>
       </c>
       <c r="C56" t="n">
-        <v>7730.02</v>
+        <v>4636.92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70761</v>
+        <v>1.70605</v>
       </c>
       <c r="B57" t="n">
-        <v>7.73015</v>
+        <v>4.64247</v>
       </c>
       <c r="C57" t="n">
-        <v>7730.15</v>
+        <v>4642.47</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73832</v>
+        <v>1.73762</v>
       </c>
       <c r="B58" t="n">
-        <v>7.73008</v>
+        <v>4.64789</v>
       </c>
       <c r="C58" t="n">
-        <v>7730.08</v>
+        <v>4647.89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76905</v>
+        <v>1.76907</v>
       </c>
       <c r="B59" t="n">
-        <v>7.72979</v>
+        <v>4.653189999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>7729.79</v>
+        <v>4653.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79977</v>
+        <v>1.80022</v>
       </c>
       <c r="B60" t="n">
-        <v>7.72929</v>
+        <v>4.65838</v>
       </c>
       <c r="C60" t="n">
-        <v>7729.29</v>
+        <v>4658.38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83048</v>
+        <v>1.83136</v>
       </c>
       <c r="B61" t="n">
-        <v>7.7286</v>
+        <v>4.66341</v>
       </c>
       <c r="C61" t="n">
-        <v>7728.6</v>
+        <v>4663.41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86121</v>
+        <v>1.86251</v>
       </c>
       <c r="B62" t="n">
-        <v>7.727729999999999</v>
+        <v>4.66835</v>
       </c>
       <c r="C62" t="n">
-        <v>7727.73</v>
+        <v>4668.35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89193</v>
+        <v>1.89366</v>
       </c>
       <c r="B63" t="n">
-        <v>7.72663</v>
+        <v>4.67317</v>
       </c>
       <c r="C63" t="n">
-        <v>7726.63</v>
+        <v>4673.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92278</v>
+        <v>1.9248</v>
       </c>
       <c r="B64" t="n">
-        <v>7.725300000000001</v>
+        <v>4.677890000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>7725.3</v>
+        <v>4677.89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95412</v>
+        <v>1.95595</v>
       </c>
       <c r="B65" t="n">
-        <v>7.72373</v>
+        <v>4.6825</v>
       </c>
       <c r="C65" t="n">
-        <v>7723.73</v>
+        <v>4682.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98546</v>
+        <v>1.9871</v>
       </c>
       <c r="B66" t="n">
-        <v>7.72193</v>
+        <v>4.68699</v>
       </c>
       <c r="C66" t="n">
-        <v>7721.93</v>
+        <v>4686.99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01671</v>
+        <v>2.01811</v>
       </c>
       <c r="B67" t="n">
-        <v>7.719930000000001</v>
+        <v>4.69139</v>
       </c>
       <c r="C67" t="n">
-        <v>7719.93</v>
+        <v>4691.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04761</v>
+        <v>2.04882</v>
       </c>
       <c r="B68" t="n">
-        <v>7.71769</v>
+        <v>4.69568</v>
       </c>
       <c r="C68" t="n">
-        <v>7717.69</v>
+        <v>4695.68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0785</v>
+        <v>2.07954</v>
       </c>
       <c r="B69" t="n">
-        <v>7.71524</v>
+        <v>4.69988</v>
       </c>
       <c r="C69" t="n">
-        <v>7715.24</v>
+        <v>4699.88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1094</v>
+        <v>2.11026</v>
       </c>
       <c r="B70" t="n">
-        <v>7.712569999999999</v>
+        <v>4.70398</v>
       </c>
       <c r="C70" t="n">
-        <v>7712.57</v>
+        <v>4703.98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1403</v>
+        <v>2.14099</v>
       </c>
       <c r="B71" t="n">
-        <v>7.70966</v>
+        <v>4.70797</v>
       </c>
       <c r="C71" t="n">
-        <v>7709.66</v>
+        <v>4707.97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17119</v>
+        <v>2.1717</v>
       </c>
       <c r="B72" t="n">
-        <v>7.706510000000001</v>
+        <v>4.71186</v>
       </c>
       <c r="C72" t="n">
-        <v>7706.51</v>
+        <v>4711.86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20209</v>
+        <v>2.20242</v>
       </c>
       <c r="B73" t="n">
-        <v>7.70314</v>
+        <v>4.71567</v>
       </c>
       <c r="C73" t="n">
-        <v>7703.14</v>
+        <v>4715.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23298</v>
+        <v>2.23315</v>
       </c>
       <c r="B74" t="n">
-        <v>7.69954</v>
+        <v>4.71938</v>
       </c>
       <c r="C74" t="n">
-        <v>7699.54</v>
+        <v>4719.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26388</v>
+        <v>2.26386</v>
       </c>
       <c r="B75" t="n">
-        <v>7.69569</v>
+        <v>4.723</v>
       </c>
       <c r="C75" t="n">
-        <v>7695.69</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29478</v>
+        <v>2.29458</v>
       </c>
       <c r="B76" t="n">
-        <v>7.69154</v>
+        <v>4.72654</v>
       </c>
       <c r="C76" t="n">
-        <v>7691.54</v>
+        <v>4726.54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32568</v>
+        <v>2.3253</v>
       </c>
       <c r="B77" t="n">
-        <v>7.68699</v>
+        <v>4.72999</v>
       </c>
       <c r="C77" t="n">
-        <v>7686.99</v>
+        <v>4729.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35686</v>
+        <v>2.35603</v>
       </c>
       <c r="B78" t="n">
-        <v>7.68195</v>
+        <v>4.73337</v>
       </c>
       <c r="C78" t="n">
-        <v>7681.95</v>
+        <v>4733.37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38794</v>
+        <v>2.38674</v>
       </c>
       <c r="B79" t="n">
-        <v>7.676640000000001</v>
+        <v>4.73666</v>
       </c>
       <c r="C79" t="n">
-        <v>7676.64</v>
+        <v>4736.66</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41903</v>
+        <v>2.41819</v>
       </c>
       <c r="B80" t="n">
-        <v>7.67105</v>
+        <v>4.73994</v>
       </c>
       <c r="C80" t="n">
-        <v>7671.05</v>
+        <v>4739.94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45011</v>
+        <v>2.44904</v>
       </c>
       <c r="B81" t="n">
-        <v>7.665229999999999</v>
+        <v>4.74308</v>
       </c>
       <c r="C81" t="n">
-        <v>7665.23</v>
+        <v>4743.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4812</v>
+        <v>2.47976</v>
       </c>
       <c r="B82" t="n">
-        <v>7.65918</v>
+        <v>4.74614</v>
       </c>
       <c r="C82" t="n">
-        <v>7659.18</v>
+        <v>4746.14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51229</v>
+        <v>2.51048</v>
       </c>
       <c r="B83" t="n">
-        <v>7.6528</v>
+        <v>4.7491</v>
       </c>
       <c r="C83" t="n">
-        <v>7652.8</v>
+        <v>4749.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54337</v>
+        <v>2.54092</v>
       </c>
       <c r="B84" t="n">
-        <v>7.646100000000001</v>
+        <v>4.75198</v>
       </c>
       <c r="C84" t="n">
-        <v>7646.1</v>
+        <v>4751.98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57446</v>
+        <v>2.57079</v>
       </c>
       <c r="B85" t="n">
-        <v>7.639130000000001</v>
+        <v>4.75478</v>
       </c>
       <c r="C85" t="n">
-        <v>7639.13</v>
+        <v>4754.78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60554</v>
+        <v>2.60066</v>
       </c>
       <c r="B86" t="n">
-        <v>7.631880000000001</v>
+        <v>4.75751</v>
       </c>
       <c r="C86" t="n">
-        <v>7631.88</v>
+        <v>4757.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63663</v>
+        <v>2.63053</v>
       </c>
       <c r="B87" t="n">
-        <v>7.624210000000001</v>
+        <v>4.76016</v>
       </c>
       <c r="C87" t="n">
-        <v>7624.21</v>
+        <v>4760.16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66771</v>
+        <v>2.66039</v>
       </c>
       <c r="B88" t="n">
-        <v>7.61628</v>
+        <v>4.76274</v>
       </c>
       <c r="C88" t="n">
-        <v>7616.28</v>
+        <v>4762.74</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.6988</v>
+        <v>2.69026</v>
       </c>
       <c r="B89" t="n">
-        <v>7.60811</v>
+        <v>4.76527</v>
       </c>
       <c r="C89" t="n">
-        <v>7608.11</v>
+        <v>4765.27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72989</v>
+        <v>2.72013</v>
       </c>
       <c r="B90" t="n">
-        <v>7.599670000000001</v>
+        <v>4.76775</v>
       </c>
       <c r="C90" t="n">
-        <v>7599.67</v>
+        <v>4767.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76097</v>
+        <v>2.74999</v>
       </c>
       <c r="B91" t="n">
-        <v>7.59087</v>
+        <v>4.77013</v>
       </c>
       <c r="C91" t="n">
-        <v>7590.87</v>
+        <v>4770.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79206</v>
+        <v>2.78177</v>
       </c>
       <c r="B92" t="n">
-        <v>7.58169</v>
+        <v>4.77257</v>
       </c>
       <c r="C92" t="n">
-        <v>7581.69</v>
+        <v>4772.57</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82234</v>
+        <v>2.81377</v>
       </c>
       <c r="B93" t="n">
-        <v>7.57228</v>
+        <v>4.77494</v>
       </c>
       <c r="C93" t="n">
-        <v>7572.28</v>
+        <v>4774.94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85251</v>
+        <v>2.84577</v>
       </c>
       <c r="B94" t="n">
-        <v>7.562430000000001</v>
+        <v>4.777220000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>7562.43</v>
+        <v>4777.22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88268</v>
+        <v>2.87777</v>
       </c>
       <c r="B95" t="n">
-        <v>7.55223</v>
+        <v>4.77942</v>
       </c>
       <c r="C95" t="n">
-        <v>7552.23</v>
+        <v>4779.42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91286</v>
+        <v>2.90977</v>
       </c>
       <c r="B96" t="n">
-        <v>7.541609999999999</v>
+        <v>4.78153</v>
       </c>
       <c r="C96" t="n">
-        <v>7541.61</v>
+        <v>4781.53</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94303</v>
+        <v>2.94177</v>
       </c>
       <c r="B97" t="n">
-        <v>7.53058</v>
+        <v>4.78359</v>
       </c>
       <c r="C97" t="n">
-        <v>7530.58</v>
+        <v>4783.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9732</v>
+        <v>2.97377</v>
       </c>
       <c r="B98" t="n">
-        <v>7.519060000000001</v>
+        <v>4.785550000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>7519.06</v>
+        <v>4785.55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00337</v>
+        <v>3.00577</v>
       </c>
       <c r="B99" t="n">
-        <v>7.50717</v>
+        <v>4.78745</v>
       </c>
       <c r="C99" t="n">
-        <v>7507.17</v>
+        <v>4787.45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03354</v>
+        <v>3.03777</v>
       </c>
       <c r="B100" t="n">
-        <v>7.494770000000001</v>
+        <v>4.78928</v>
       </c>
       <c r="C100" t="n">
-        <v>7494.77</v>
+        <v>4789.28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06371</v>
+        <v>3.06977</v>
       </c>
       <c r="B101" t="n">
-        <v>7.481680000000001</v>
+        <v>4.79105</v>
       </c>
       <c r="C101" t="n">
-        <v>7481.68</v>
+        <v>4791.05</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09388</v>
+        <v>3.10166</v>
       </c>
       <c r="B102" t="n">
-        <v>7.467840000000001</v>
+        <v>4.79274</v>
       </c>
       <c r="C102" t="n">
-        <v>7467.84</v>
+        <v>4792.74</v>
       </c>
     </row>
   </sheetData>
